--- a/medicine/Psychotrope/Lycée_viticole_de_Beaune/Lycée_viticole_de_Beaune.xlsx
+++ b/medicine/Psychotrope/Lycée_viticole_de_Beaune/Lycée_viticole_de_Beaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lyc%C3%A9e_viticole_de_Beaune</t>
+          <t>Lycée_viticole_de_Beaune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lycée viticole de Beaune est créé en 1884 ; il fait partie des quatre établissements de Bourgogne où sont enseignés la viticulture et l'œnologie (formations en Viticulture-Œnologie).
 Le lycée est communément appelé « la Viti ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lyc%C3%A9e_viticole_de_Beaune</t>
+          <t>Lycée_viticole_de_Beaune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'établissement est créé en 1884, dans le clos Saint-Philibert, situé à la limite du vignoble de la côte de Beaune et de la ville elle-même.  (Géolocalisation 47° 01′ 29,75″ N, 4° 49′ 47,99″ E)
 À l'époque, la crise viticole fait disparaître une grande partie du vignoble, à cause de l'apparition de maladies comme l'oïdium, le mildiou, le black rot, ou encore le phylloxéra. Le système de greffage permet de contrer le phylloxéra, et l'utilisation de cuivres ou de soufre pour les autres maladies font naître une demande de formation. C'est dans ce contexte que La Viti est créée, comme pépinière et centre de greffage. Elle s'est ensuite diversifiée au fur et à mesure que les techniques viticoles ont évolué.  
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lyc%C3%A9e_viticole_de_Beaune</t>
+          <t>Lycée_viticole_de_Beaune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,19 +559,89 @@
           <t>Formations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs centres de formation sont présents sur le site de La Viti.
-Lycée
-La Viti dispense plusieurs formations diplômantes : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lycée_viticole_de_Beaune</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lyc%C3%A9e_viticole_de_Beaune</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lycée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Viti dispense plusieurs formations diplômantes : 
 Bac professionnel technicien conseil vente en produit alimentaire et boisson
 Bac professionnel vigne et vin
 Bac technologique STAV
 BTS viticulture et œnologie
-BTS technico-commercial
-CFA
-CFPPA
-Le CFPPA propose différents types de formations, qui se regroupent ainsi :
+BTS technico-commercial</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lycée_viticole_de_Beaune</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lyc%C3%A9e_viticole_de_Beaune</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CFPPA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CFPPA propose différents types de formations, qui se regroupent ainsi :
 Les formations techniques :
 le BPA et le BP REA en viticulture-œnologie sont des formations continues à distance ou en alternance ;
 le BTS viticulture et œnologie en alternance ;
@@ -570,43 +654,83 @@
 le master et un certificat d'études spécialisées en commerce international des vins, en partenariat avec l’ENESAD.
 Une formation en tourisme :
 la préparation au concours de guide interprète régional.
-Ainsi que des formations internationales, avec l'accueil de stagiaires étrangers, et des participations à des programmes européens ou internationaux avec de nombreux pays[1].
+Ainsi que des formations internationales, avec l'accueil de stagiaires étrangers, et des participations à des programmes européens ou internationaux avec de nombreux pays.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lyc%C3%A9e_viticole_de_Beaune</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lycée_viticole_de_Beaune</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lyc%C3%A9e_viticole_de_Beaune</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Bâtiments</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Internat et réfectoire
-La Viti possède un réfectoire pour les élèves, toutes formations confondues, servant petit-déjeuner, déjeuner et dîner. Un internat est également présent sur le site, permettant aux élèves de séjourner la semaine, et aux étudiants étrangers sur de longues périodes.
-Domaine Viticole
-L’exploitation ne dispose d’aucune subvention de fonctionnement et l’équilibre de son budget est réalisé grâce aux recettes provenant des ventes de vins. C’est donc une véritable exploitation viticole, servant avant tout à la formation pratique des élèves du lycée. Encadrés par des enseignants et le personnel salarié du Domaine, les élèves participent aux vendanges, aux vinifications et à tous les travaux de la vigne jusqu’à la commercialisation des vins.  
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Internat et réfectoire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Viti possède un réfectoire pour les élèves, toutes formations confondues, servant petit-déjeuner, déjeuner et dîner. Un internat est également présent sur le site, permettant aux élèves de séjourner la semaine, et aux étudiants étrangers sur de longues périodes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lycée_viticole_de_Beaune</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lyc%C3%A9e_viticole_de_Beaune</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bâtiments</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Domaine Viticole</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’exploitation ne dispose d’aucune subvention de fonctionnement et l’équilibre de son budget est réalisé grâce aux recettes provenant des ventes de vins. C’est donc une véritable exploitation viticole, servant avant tout à la formation pratique des élèves du lycée. Encadrés par des enseignants et le personnel salarié du Domaine, les élèves participent aux vendanges, aux vinifications et à tous les travaux de la vigne jusqu’à la commercialisation des vins.  
 Le domaine possède sa propre cuverie, refaite en 2017.  L'accueil est possible dans le caveau de dégustation et vente, 16 avenue Charles Jaffelin pour découvrir les vins élaborés par l'exploitation. Le Domaine du Lycée est adhérent à l'association des VIGNERONS INDEPENDANTS DE FRANCE depuis plus de 30 ans.  
-L'exploitation possède 20 AOC différentes[2], pour une surface de 23 hectares et produit en moyenne 90 000 bouteilles par an. Le domaine est certifié HVE niveau 3 depuis 2016. La majorité des parcelles se trouvent en côte de Beaune, 40% sont des premiers crus, le reste étant des appellations villages, et régionales : 
+L'exploitation possède 20 AOC différentes, pour une surface de 23 hectares et produit en moyenne 90 000 bouteilles par an. Le domaine est certifié HVE niveau 3 depuis 2016. La majorité des parcelles se trouvent en côte de Beaune, 40% sont des premiers crus, le reste étant des appellations villages, et régionales : 
 Rouge
 Savigny-les-Beaune 1er cru aux gravains
 Beaune 1er cru
